--- a/pearson_tables/t2m_netherlands-1-7.xlsx
+++ b/pearson_tables/t2m_netherlands-1-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6376893915749461</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5890777069339589</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.731469155411714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6904940916235925</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8507060715407246</v>
+        <v>-0.6407510497588037</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6731576236712349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6736232908467905</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6781997415425928</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8006279909633389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8398540149474109</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7376816755717245</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.659622622096444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7352835503266628</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7523500778781815</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7212848909329538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7331861826421507</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6435505337170057</v>
+        <v>-0.6788932807695982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7369195515046109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.699329945179808</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6775220382674542</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6369352929269141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6316168587311036</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5898925075844083</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.534753686082959</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
